--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/30_Erzincan_2023.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/30_Erzincan_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBEAA4E2-4E6D-4E2C-830F-00326DEE61A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E14D327-DBB9-46A0-9ED1-F060603B51F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" xr2:uid="{7A6E73A1-5A76-4BA5-9F63-7177E9CB5B16}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" xr2:uid="{7A58FAFC-A611-49B9-BE30-F187ECD7BDAE}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="124" r:id="rId1"/>
@@ -911,13 +911,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{1F7E33FE-1B93-4FDD-A292-B17CFF593109}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{5838BF70-9892-4E2B-B18D-2855B8157579}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{308B44EB-45C5-48C8-998A-7E91E4677882}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{C24BA6A3-3C46-463B-9071-FC3C3E4E8B0A}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{62A75B8F-0F0A-4A76-98D8-65EB5A23856E}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{C733ADA9-3157-44E9-8A69-8C88461C0157}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{52328ED7-93A3-41B8-931B-53DC5875B5F2}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{5BFCC6D5-44E0-433A-A8C1-349D89AAD03E}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{22255F06-6BD2-448E-BE4B-C08FB2081997}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{1AEA50FD-0A3E-4AAB-8DC3-E18CD5B26BD5}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{A1C68C1B-45C2-482E-9224-98FADDCC0AD2}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{3E8C0045-5B6A-4A77-B94B-B0889E0BE901}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{D5CA11BC-2707-4686-8907-DC32500C3117}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{5C9CE6E7-1F22-43E2-AA6B-51925B7B6766}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1287,7 +1287,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{892F92E5-4E20-41F5-A6CA-93FDB38A07A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E549A82C-3C93-481C-AC1D-7B3AE399EC7E}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2531,7 +2531,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17413ABC-7D06-424D-99C0-DB7EEDFD4832}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CB3650F-B629-4524-992D-B0F185A924F2}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A58" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3740,7 +3740,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE32B4CF-BE65-4F25-99C2-960D9AD6047E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19590589-F08B-43DB-B3A5-5DEBF219C689}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A46" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -4943,7 +4943,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94A01959-7397-4CFA-835A-2E712F95928E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EAEFECB-CCE1-4C1E-A9F2-C63B5691BFFD}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6132,7 +6132,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B679693C-6256-4F9A-8E29-3499C8C5FDCE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9467DABE-E5B3-4ED1-AF46-004BAE3E486F}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A40" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7375,7 +7375,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F25D75-00A8-43CE-8E24-3D57E875C77B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6145938-6732-439F-B689-2A730EAE7D87}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8618,7 +8618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B488F30-D253-4247-AC10-2E7A2CD5EDFE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61757C0E-B802-4C18-BB76-C2D9AA7ECA08}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9861,7 +9861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D8A819B-5595-4D06-8A75-4440110B7BF2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CD158EA-F577-493D-B1F7-94F474F8C3A8}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A34" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11104,7 +11104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A988D0CE-82D5-4BF4-B07A-A96C4468F651}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0BE7F47-E1A4-422D-B25F-B78D698666C5}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A58" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12347,7 +12347,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97C5741-19C5-4BC5-AE18-5C6346F52F7E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D29159B-7A24-4F73-9E27-59292F635209}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A40" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13580,7 +13580,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{651CDC0B-DC77-4964-9AD3-15FB633EB062}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D23A0B67-C313-4CAB-8CDF-3F16A29E6960}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14809,7 +14809,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A06C1854-0809-4E97-A45A-C2F189145710}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3EDB111-97EA-43AB-8598-791AE98D7C2E}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
